--- a/DataFolder/ExcelFiles/Product groups/Бытовая техника/Посудомоечные машины.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Бытовая техника/Посудомоечные машины.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Бытовая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -324,9 +324,6 @@
     <t>Посудомоечная машина Asko D5904 S</t>
   </si>
   <si>
-    <t>D5904 S</t>
-  </si>
-  <si>
     <t>частично встраиваемая</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>D5904S</t>
   </si>
 </sst>
 </file>
@@ -1094,16 +1094,7 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1475,7 +1466,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>10</v>
@@ -1484,13 +1475,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>19</v>
@@ -1551,7 +1542,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>30</v>
@@ -1584,7 +1575,7 @@
         <v>31</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>40</v>
@@ -1632,7 +1623,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>30</v>
@@ -1665,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>40</v>
@@ -1713,7 +1704,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>30</v>
@@ -1746,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>40</v>
@@ -1798,10 +1789,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>47</v>
@@ -1831,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>40</v>
@@ -1883,7 +1874,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>30</v>
@@ -1916,7 +1907,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>40</v>
@@ -1964,7 +1955,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>25</v>
@@ -1997,7 +1988,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>28</v>
@@ -2045,10 +2036,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>47</v>
@@ -2078,7 +2069,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>40</v>
@@ -2130,13 +2121,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" s="3">
         <v>0.92</v>
@@ -2163,7 +2154,7 @@
         <v>31</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>28</v>
@@ -2193,7 +2184,7 @@
         <v>31</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>48</v>
@@ -2213,7 +2204,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -2246,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>28</v>
@@ -2276,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
@@ -2294,10 +2285,10 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>47</v>
@@ -2327,7 +2318,7 @@
         <v>31</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>40</v>
@@ -2379,10 +2370,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>47</v>
@@ -2412,7 +2403,7 @@
         <v>31</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>40</v>
@@ -2464,10 +2455,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>47</v>
@@ -2497,7 +2488,7 @@
         <v>31</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>40</v>
@@ -2549,10 +2540,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
@@ -2582,7 +2573,7 @@
         <v>31</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>40</v>
@@ -2634,7 +2625,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>82</v>
@@ -2667,7 +2658,7 @@
         <v>31</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>40</v>
@@ -2719,7 +2710,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>30</v>
@@ -2800,7 +2791,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>25</v>
@@ -2881,7 +2872,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>25</v>
@@ -2914,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>95</v>
@@ -2944,7 +2935,7 @@
         <v>26</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>88</v>
@@ -2966,7 +2957,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>30</v>
@@ -2999,7 +2990,7 @@
         <v>26</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -3032,7 +3023,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>99</v>
@@ -3043,7 +3034,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>30</v>
@@ -3052,13 +3043,13 @@
         <v>34</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>27</v>
@@ -3076,7 +3067,7 @@
         <v>26</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>95</v>
@@ -3109,10 +3100,10 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -3120,7 +3111,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>25</v>
@@ -3153,7 +3144,7 @@
         <v>26</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
